--- a/dataExcel/【M4A1 消音型（StatTrak™） _ 破碎铅秋 (略有磨损)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【M4A1 消音型（StatTrak™） _ 破碎铅秋 (略有磨损)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I215"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 15:47:14</v>
+        <v>2023-09-19 09:44:49</v>
       </c>
       <c r="B8">
-        <v>105.98</v>
+        <v>108</v>
       </c>
       <c r="C8">
-        <v>129.16</v>
+        <v>134.36</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0.11</v>
@@ -449,27 +449,27 @@
         <v>0.08</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 19:17:03</v>
+        <v>2023-09-19 13:26:29</v>
       </c>
       <c r="B9">
-        <v>105.98</v>
+        <v>108</v>
       </c>
       <c r="C9">
-        <v>129.16</v>
+        <v>134.36</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>0.11</v>
@@ -481,24 +481,24 @@
         <v>14</v>
       </c>
       <c r="H9">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 23:02:53</v>
+        <v>2023-09-19 17:02:56</v>
       </c>
       <c r="B10">
-        <v>105.98</v>
+        <v>106.85</v>
       </c>
       <c r="C10">
-        <v>129.16</v>
+        <v>134.36</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>0.11</v>
@@ -507,10 +507,10 @@
         <v>0.08</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I10">
         <v>8</v>
@@ -518,16 +518,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 02:43:56</v>
+        <v>2023-09-19 20:43:44</v>
       </c>
       <c r="B11">
-        <v>105.98</v>
+        <v>105.85</v>
       </c>
       <c r="C11">
-        <v>132.86</v>
+        <v>134.36</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>0.11</v>
@@ -536,10 +536,10 @@
         <v>0.08</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>8</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-17 02:49:05</v>
+        <v>2023-09-20 00:19:09</v>
       </c>
       <c r="B12">
-        <v>105.98</v>
+        <v>105</v>
       </c>
       <c r="C12">
-        <v>132.86</v>
+        <v>134.36</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0.11</v>
@@ -565,27 +565,27 @@
         <v>0.08</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 06:29:34</v>
+        <v>2023-09-20 03:56:54</v>
       </c>
       <c r="B13">
-        <v>105.98</v>
+        <v>105</v>
       </c>
       <c r="C13">
-        <v>132.86</v>
+        <v>133.51</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0.11</v>
@@ -594,27 +594,27 @@
         <v>0.08</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 10:05:25</v>
+        <v>2023-09-20 07:35:19</v>
       </c>
       <c r="B14">
-        <v>105.98</v>
+        <v>105</v>
       </c>
       <c r="C14">
-        <v>132.86</v>
+        <v>133.51</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0.11</v>
@@ -623,56 +623,56 @@
         <v>0.08</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 13:41:30</v>
+        <v>2023-09-20 11:09:34</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15">
-        <v>132.86</v>
+        <v>133.51</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E15">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F15">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 17:20:00</v>
+        <v>2023-09-20 14:51:13</v>
       </c>
       <c r="B16">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16">
-        <v>132.86</v>
+        <v>133.51</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>0.11</v>
@@ -681,27 +681,27 @@
         <v>0.08</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 20:56:38</v>
+        <v>2023-09-20 18:36:29</v>
       </c>
       <c r="B17">
         <v>107</v>
       </c>
       <c r="C17">
-        <v>132.86</v>
+        <v>133.51</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>0.11</v>
@@ -710,27 +710,27 @@
         <v>0.08</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H17">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 00:39:37</v>
+        <v>2023-09-20 18:46:52</v>
       </c>
       <c r="B18">
-        <v>108</v>
+        <v>107.88</v>
       </c>
       <c r="C18">
-        <v>132.86</v>
+        <v>133.51</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0.11</v>
@@ -739,27 +739,27 @@
         <v>0.08</v>
       </c>
       <c r="G18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-18 04:22:07</v>
+        <v>2023-09-20 22:24:14</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>107.38</v>
       </c>
       <c r="C19">
-        <v>137.34</v>
+        <v>133.51</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0.11</v>
@@ -768,27 +768,27 @@
         <v>0.08</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H19">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 08:01:41</v>
+        <v>2023-09-21 02:00:56</v>
       </c>
       <c r="B20">
-        <v>108</v>
+        <v>107.88</v>
       </c>
       <c r="C20">
-        <v>137.34</v>
+        <v>133.51</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>0.11</v>
@@ -797,10 +797,10 @@
         <v>0.08</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H20">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -808,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 11:45:13</v>
+        <v>2023-09-21 05:38:53</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>107.88</v>
       </c>
       <c r="C21">
-        <v>137.34</v>
+        <v>131.04</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E21">
         <v>0.11</v>
@@ -826,27 +826,27 @@
         <v>0.08</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H21">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 11:48:58</v>
+        <v>2023-09-21 09:17:11</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>107.88</v>
       </c>
       <c r="C22">
-        <v>137.34</v>
+        <v>131.04</v>
       </c>
       <c r="D22">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0.11</v>
@@ -855,24 +855,24 @@
         <v>0.08</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H22">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 15:25:13</v>
+        <v>2023-09-21 12:50:47</v>
       </c>
       <c r="B23">
-        <v>105</v>
+        <v>107.38</v>
       </c>
       <c r="C23">
-        <v>137.34</v>
+        <v>131.04</v>
       </c>
       <c r="D23">
         <v>50</v>
@@ -884,10 +884,10 @@
         <v>0.08</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -895,16 +895,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 15:29:10</v>
+        <v>2023-09-21 16:27:53</v>
       </c>
       <c r="B24">
-        <v>105</v>
+        <v>107.38</v>
       </c>
       <c r="C24">
-        <v>137.34</v>
+        <v>131.04</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>0.11</v>
@@ -913,10 +913,10 @@
         <v>0.08</v>
       </c>
       <c r="G24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -924,16 +924,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-18 19:06:02</v>
+        <v>2023-09-21 20:08:38</v>
       </c>
       <c r="B25">
-        <v>102</v>
+        <v>107.38</v>
       </c>
       <c r="C25">
-        <v>137.34</v>
+        <v>131.04</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>0.11</v>
@@ -942,10 +942,10 @@
         <v>0.08</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I25">
         <v>7</v>
@@ -953,16 +953,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-18 22:40:35</v>
+        <v>2023-09-21 23:49:16</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26">
-        <v>137.34</v>
+        <v>131.04</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>0.11</v>
@@ -971,10 +971,10 @@
         <v>0.08</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I26">
         <v>7</v>
@@ -982,422 +982,422 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 02:24:55</v>
+        <v>2023-09-22 03:29:49</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>107.38</v>
       </c>
       <c r="C27">
-        <v>134.36</v>
+        <v>125.06</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E27">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F27">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G27">
         <v>13</v>
       </c>
       <c r="H27">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I27">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 06:00:59</v>
+        <v>2023-09-22 07:08:49</v>
       </c>
       <c r="B28">
-        <v>108</v>
+        <v>107.88</v>
       </c>
       <c r="C28">
-        <v>134.36</v>
+        <v>125.06</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E28">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F28">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G28">
         <v>13</v>
       </c>
       <c r="H28">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-19 09:44:49</v>
+        <v>2023-09-22 10:46:49</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>107.88</v>
       </c>
       <c r="C29">
-        <v>134.36</v>
+        <v>125.06</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E29">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F29">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G29">
         <v>13</v>
       </c>
       <c r="H29">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-19 13:26:29</v>
+        <v>2023-09-22 10:51:30</v>
       </c>
       <c r="B30">
-        <v>108</v>
+        <v>107.88</v>
       </c>
       <c r="C30">
-        <v>134.36</v>
+        <v>125.06</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E30">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F30">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H30">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I30">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-19 17:02:56</v>
+        <v>2023-09-22 14:23:46</v>
       </c>
       <c r="B31">
-        <v>106.85</v>
+        <v>107.88</v>
       </c>
       <c r="C31">
-        <v>134.36</v>
+        <v>125.06</v>
       </c>
       <c r="D31">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F31">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31">
         <v>99</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-19 20:43:44</v>
+        <v>2023-09-22 14:28:01</v>
       </c>
       <c r="B32">
-        <v>105.85</v>
+        <v>107.88</v>
       </c>
       <c r="C32">
-        <v>134.36</v>
+        <v>125.06</v>
       </c>
       <c r="D32">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E32">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F32">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I32">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 00:19:09</v>
+        <v>2023-09-22 18:04:29</v>
       </c>
       <c r="B33">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33">
-        <v>134.36</v>
+        <v>125.06</v>
       </c>
       <c r="D33">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E33">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F33">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H33">
         <v>100</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 03:56:54</v>
+        <v>2023-09-22 21:42:56</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>107.8</v>
       </c>
       <c r="C34">
-        <v>133.51</v>
+        <v>125.06</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E34">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F34">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-20 07:35:19</v>
+        <v>2023-09-23 01:15:14</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>107.8</v>
       </c>
       <c r="C35">
-        <v>133.51</v>
+        <v>125.06</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E35">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F35">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-20 11:09:34</v>
+        <v>2023-09-23 04:57:49</v>
       </c>
       <c r="B36">
-        <v>105</v>
+        <v>107.8</v>
       </c>
       <c r="C36">
-        <v>133.51</v>
+        <v>136.11</v>
       </c>
       <c r="D36">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E36">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F36">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-20 14:51:13</v>
+        <v>2023-09-23 08:36:27</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>107.8</v>
       </c>
       <c r="C37">
-        <v>133.51</v>
+        <v>136.11</v>
       </c>
       <c r="D37">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E37">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F37">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I37">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-20 18:36:29</v>
+        <v>2023-09-23 12:18:22</v>
       </c>
       <c r="B38">
-        <v>107</v>
+        <v>107.8</v>
       </c>
       <c r="C38">
-        <v>133.51</v>
+        <v>136.11</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F38">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I38">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-20 18:46:52</v>
+        <v>2023-09-23 15:57:38</v>
       </c>
       <c r="B39">
-        <v>107.88</v>
+        <v>107.8</v>
       </c>
       <c r="C39">
-        <v>133.51</v>
+        <v>136.11</v>
       </c>
       <c r="D39">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F39">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G39">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H39">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I39">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 22:24:14</v>
+        <v>2023-09-23 19:36:40</v>
       </c>
       <c r="B40">
-        <v>107.38</v>
+        <v>108</v>
       </c>
       <c r="C40">
-        <v>133.51</v>
+        <v>136.11</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F40">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H40">
         <v>100</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-21 02:00:56</v>
+        <v>2023-09-23 23:16:14</v>
       </c>
       <c r="B41">
-        <v>107.88</v>
+        <v>107.5</v>
       </c>
       <c r="C41">
-        <v>133.51</v>
+        <v>136.11</v>
       </c>
       <c r="D41">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41">
         <v>0.11</v>
@@ -1406,10 +1406,10 @@
         <v>0.08</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I41">
         <v>8</v>
@@ -1417,16 +1417,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-21 05:38:53</v>
+        <v>2023-09-24 02:51:52</v>
       </c>
       <c r="B42">
-        <v>107.88</v>
+        <v>107.5</v>
       </c>
       <c r="C42">
-        <v>131.04</v>
+        <v>139.75</v>
       </c>
       <c r="D42">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E42">
         <v>0.11</v>
@@ -1435,24 +1435,24 @@
         <v>0.08</v>
       </c>
       <c r="G42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I42">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-21 09:17:11</v>
+        <v>2023-09-24 06:29:32</v>
       </c>
       <c r="B43">
-        <v>107.88</v>
+        <v>107.5</v>
       </c>
       <c r="C43">
-        <v>131.04</v>
+        <v>139.75</v>
       </c>
       <c r="D43">
         <v>49</v>
@@ -1467,24 +1467,24 @@
         <v>15</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-21 12:50:47</v>
+        <v>2023-09-24 10:07:09</v>
       </c>
       <c r="B44">
-        <v>107.38</v>
+        <v>107.5</v>
       </c>
       <c r="C44">
-        <v>131.04</v>
+        <v>139.75</v>
       </c>
       <c r="D44">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44">
         <v>0.11</v>
@@ -1493,474 +1493,474 @@
         <v>0.08</v>
       </c>
       <c r="G44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-21 16:27:53</v>
+        <v>2023-09-24 15:14:34</v>
       </c>
       <c r="B45">
-        <v>107.38</v>
+        <v>106.5</v>
       </c>
       <c r="C45">
-        <v>131.04</v>
+        <v>139.75</v>
       </c>
       <c r="D45">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E45">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F45">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G45">
         <v>14</v>
       </c>
       <c r="H45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-21 20:08:38</v>
+        <v>2023-09-24 20:24:12</v>
       </c>
       <c r="B46">
-        <v>107.38</v>
+        <v>105</v>
       </c>
       <c r="C46">
-        <v>131.04</v>
+        <v>139.75</v>
       </c>
       <c r="D46">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F46">
         <v>0.08</v>
       </c>
       <c r="G46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I46">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-21 23:49:16</v>
+        <v>2023-09-25 01:36:47</v>
       </c>
       <c r="B47">
-        <v>107</v>
+        <v>104.4</v>
       </c>
       <c r="C47">
-        <v>131.04</v>
+        <v>139.75</v>
       </c>
       <c r="D47">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E47">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F47">
         <v>0.08</v>
       </c>
       <c r="G47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I47">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-22 03:29:49</v>
+        <v>2023-09-25 06:43:55</v>
       </c>
       <c r="B48">
-        <v>107.38</v>
+        <v>104.4</v>
       </c>
       <c r="C48">
-        <v>125.06</v>
+        <v>131.69</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F48">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-22 07:08:49</v>
+        <v>2023-09-25 11:53:54</v>
       </c>
       <c r="B49">
-        <v>107.88</v>
+        <v>104.3</v>
       </c>
       <c r="C49">
-        <v>125.06</v>
+        <v>131.69</v>
       </c>
       <c r="D49">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E49">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F49">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G49">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H49">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-22 10:46:49</v>
+        <v>2023-09-25 17:05:10</v>
       </c>
       <c r="B50">
-        <v>107.88</v>
+        <v>103.8</v>
       </c>
       <c r="C50">
-        <v>125.06</v>
+        <v>131.69</v>
       </c>
       <c r="D50">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E50">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F50">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G50">
         <v>13</v>
       </c>
       <c r="H50">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-22 10:51:30</v>
+        <v>2023-09-25 22:14:03</v>
       </c>
       <c r="B51">
-        <v>107.88</v>
+        <v>102.3</v>
       </c>
       <c r="C51">
-        <v>125.06</v>
+        <v>131.69</v>
       </c>
       <c r="D51">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E51">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F51">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-22 14:23:46</v>
+        <v>2023-09-26 03:24:55</v>
       </c>
       <c r="B52">
-        <v>107.88</v>
+        <v>102.3</v>
       </c>
       <c r="C52">
-        <v>125.06</v>
+        <v>131.82</v>
       </c>
       <c r="D52">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E52">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F52">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H52">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I52">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-22 14:28:01</v>
+        <v>2023-09-26 08:34:19</v>
       </c>
       <c r="B53">
-        <v>107.88</v>
+        <v>102.3</v>
       </c>
       <c r="C53">
-        <v>125.06</v>
+        <v>131.82</v>
       </c>
       <c r="D53">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E53">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F53">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H53">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I53">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-22 18:04:29</v>
+        <v>2023-09-26 13:44:18</v>
       </c>
       <c r="B54">
-        <v>107</v>
+        <v>103.3</v>
       </c>
       <c r="C54">
-        <v>125.06</v>
+        <v>131.82</v>
       </c>
       <c r="D54">
         <v>48</v>
       </c>
       <c r="E54">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F54">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G54">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H54">
         <v>100</v>
       </c>
       <c r="I54">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-22 21:42:56</v>
+        <v>2023-09-26 18:54:18</v>
       </c>
       <c r="B55">
-        <v>107.8</v>
+        <v>103.3</v>
       </c>
       <c r="C55">
-        <v>125.06</v>
+        <v>131.82</v>
       </c>
       <c r="D55">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E55">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F55">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G55">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H55">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-23 01:15:14</v>
+        <v>2023-09-27 00:04:16</v>
       </c>
       <c r="B56">
-        <v>107.8</v>
+        <v>102.8</v>
       </c>
       <c r="C56">
-        <v>125.06</v>
+        <v>131.82</v>
       </c>
       <c r="D56">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E56">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F56">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G56">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H56">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I56">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-23 04:57:49</v>
+        <v>2023-09-27 05:14:17</v>
       </c>
       <c r="B57">
-        <v>107.8</v>
+        <v>104</v>
       </c>
       <c r="C57">
-        <v>136.11</v>
+        <v>136.63</v>
       </c>
       <c r="D57">
         <v>47</v>
       </c>
       <c r="E57">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F57">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H57">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I57">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-23 08:36:27</v>
+        <v>2023-09-27 10:24:15</v>
       </c>
       <c r="B58">
-        <v>107.8</v>
+        <v>108</v>
       </c>
       <c r="C58">
-        <v>136.11</v>
+        <v>136.63</v>
       </c>
       <c r="D58">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E58">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F58">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G58">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H58">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I58">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-23 12:18:22</v>
+        <v>2023-09-27 13:59:01</v>
       </c>
       <c r="B59">
-        <v>107.8</v>
+        <v>107.89</v>
       </c>
       <c r="C59">
-        <v>136.11</v>
+        <v>136.63</v>
       </c>
       <c r="D59">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E59">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F59">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I59">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-23 15:57:38</v>
+        <v>2023-09-27 14:05:29</v>
       </c>
       <c r="B60">
-        <v>107.8</v>
+        <v>107.89</v>
       </c>
       <c r="C60">
-        <v>136.11</v>
+        <v>136.63</v>
       </c>
       <c r="D60">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E60">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F60">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I60">
         <v>7</v>
@@ -1968,45 +1968,45 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-23 19:36:40</v>
+        <v>2023-09-27 17:41:46</v>
       </c>
       <c r="B61">
-        <v>108</v>
+        <v>107.39</v>
       </c>
       <c r="C61">
-        <v>136.11</v>
+        <v>136.63</v>
       </c>
       <c r="D61">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E61">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F61">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H61">
         <v>100</v>
       </c>
       <c r="I61">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-23 23:16:14</v>
+        <v>2023-09-27 17:47:43</v>
       </c>
       <c r="B62">
-        <v>107.5</v>
+        <v>107.39</v>
       </c>
       <c r="C62">
-        <v>136.11</v>
+        <v>136.63</v>
       </c>
       <c r="D62">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E62">
         <v>0.11</v>
@@ -2015,10 +2015,10 @@
         <v>0.08</v>
       </c>
       <c r="G62">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H62">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I62">
         <v>8</v>
@@ -2026,16 +2026,16 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-24 02:51:52</v>
+        <v>2023-09-27 21:28:22</v>
       </c>
       <c r="B63">
-        <v>107.5</v>
+        <v>107.39</v>
       </c>
       <c r="C63">
-        <v>139.75</v>
+        <v>136.63</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E63">
         <v>0.11</v>
@@ -2044,10 +2044,10 @@
         <v>0.08</v>
       </c>
       <c r="G63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H63">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I63">
         <v>9</v>
@@ -2055,28 +2055,28 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-24 06:29:32</v>
+        <v>2023-09-28 01:07:17</v>
       </c>
       <c r="B64">
-        <v>107.5</v>
+        <v>107.39</v>
       </c>
       <c r="C64">
-        <v>139.75</v>
+        <v>136.63</v>
       </c>
       <c r="D64">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E64">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F64">
         <v>0.08</v>
       </c>
       <c r="G64">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I64">
         <v>9</v>
@@ -2084,28 +2084,28 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-24 10:07:09</v>
+        <v>2023-09-28 04:43:18</v>
       </c>
       <c r="B65">
-        <v>107.5</v>
+        <v>107.39</v>
       </c>
       <c r="C65">
-        <v>139.75</v>
+        <v>125.84</v>
       </c>
       <c r="D65">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E65">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F65">
         <v>0.08</v>
       </c>
       <c r="G65">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H65">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I65">
         <v>9</v>
@@ -2113,28 +2113,28 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-24 15:14:34</v>
+        <v>2023-09-28 08:18:15</v>
       </c>
       <c r="B66">
-        <v>106.5</v>
+        <v>107.39</v>
       </c>
       <c r="C66">
-        <v>139.75</v>
+        <v>125.84</v>
       </c>
       <c r="D66">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E66">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F66">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G66">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H66">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I66">
         <v>9</v>
@@ -2142,16 +2142,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-24 20:24:12</v>
+        <v>2023-09-28 11:57:23</v>
       </c>
       <c r="B67">
-        <v>105</v>
+        <v>107.39</v>
       </c>
       <c r="C67">
-        <v>139.75</v>
+        <v>125.84</v>
       </c>
       <c r="D67">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>0.1</v>
@@ -2160,27 +2160,27 @@
         <v>0.08</v>
       </c>
       <c r="G67">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I67">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-25 01:36:47</v>
+        <v>2023-09-28 15:34:30</v>
       </c>
       <c r="B68">
-        <v>104.4</v>
+        <v>108</v>
       </c>
       <c r="C68">
-        <v>139.75</v>
+        <v>125.84</v>
       </c>
       <c r="D68">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E68">
         <v>0.1</v>
@@ -2189,30 +2189,30 @@
         <v>0.08</v>
       </c>
       <c r="G68">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H68">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-25 06:43:55</v>
+        <v>2023-09-28 19:09:43</v>
       </c>
       <c r="B69">
-        <v>104.4</v>
+        <v>107.99</v>
       </c>
       <c r="C69">
-        <v>131.69</v>
+        <v>125.84</v>
       </c>
       <c r="D69">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E69">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F69">
         <v>0.08</v>
@@ -2221,27 +2221,27 @@
         <v>14</v>
       </c>
       <c r="H69">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I69">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-25 11:53:54</v>
+        <v>2023-09-28 22:49:54</v>
       </c>
       <c r="B70">
-        <v>104.3</v>
+        <v>108</v>
       </c>
       <c r="C70">
-        <v>131.69</v>
+        <v>125.84</v>
       </c>
       <c r="D70">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E70">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F70">
         <v>0.08</v>
@@ -2250,85 +2250,85 @@
         <v>15</v>
       </c>
       <c r="H70">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I70">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-25 17:05:10</v>
+        <v>2023-09-29 02:29:46</v>
       </c>
       <c r="B71">
-        <v>103.8</v>
+        <v>108</v>
       </c>
       <c r="C71">
-        <v>131.69</v>
+        <v>130.78</v>
       </c>
       <c r="D71">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E71">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F71">
         <v>0.08</v>
       </c>
       <c r="G71">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H71">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-25 22:14:03</v>
+        <v>2023-09-29 06:11:02</v>
       </c>
       <c r="B72">
-        <v>102.3</v>
+        <v>108</v>
       </c>
       <c r="C72">
-        <v>131.69</v>
+        <v>130.78</v>
       </c>
       <c r="D72">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E72">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F72">
         <v>0.08</v>
       </c>
       <c r="G72">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H72">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I72">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-26 03:24:55</v>
+        <v>2023-09-29 09:52:42</v>
       </c>
       <c r="B73">
-        <v>102.3</v>
+        <v>107</v>
       </c>
       <c r="C73">
-        <v>131.82</v>
+        <v>130.78</v>
       </c>
       <c r="D73">
         <v>50</v>
       </c>
       <c r="E73">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F73">
         <v>0.08</v>
@@ -2337,27 +2337,27 @@
         <v>15</v>
       </c>
       <c r="H73">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-26 08:34:19</v>
+        <v>2023-09-29 13:30:09</v>
       </c>
       <c r="B74">
-        <v>102.3</v>
+        <v>103.99</v>
       </c>
       <c r="C74">
-        <v>131.82</v>
+        <v>130.78</v>
       </c>
       <c r="D74">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E74">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F74">
         <v>0.08</v>
@@ -2366,27 +2366,27 @@
         <v>15</v>
       </c>
       <c r="H74">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-26 13:44:18</v>
+        <v>2023-09-29 17:05:44</v>
       </c>
       <c r="B75">
-        <v>103.3</v>
+        <v>99.8</v>
       </c>
       <c r="C75">
-        <v>131.82</v>
+        <v>130.78</v>
       </c>
       <c r="D75">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E75">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F75">
         <v>0.08</v>
@@ -2395,27 +2395,27 @@
         <v>15</v>
       </c>
       <c r="H75">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="I75">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-26 18:54:18</v>
+        <v>2023-09-29 20:41:59</v>
       </c>
       <c r="B76">
-        <v>103.3</v>
+        <v>99.9</v>
       </c>
       <c r="C76">
-        <v>131.82</v>
+        <v>130.78</v>
       </c>
       <c r="D76">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E76">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F76">
         <v>0.08</v>
@@ -2424,27 +2424,27 @@
         <v>15</v>
       </c>
       <c r="H76">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I76">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-27 00:04:16</v>
+        <v>2023-09-30 00:20:58</v>
       </c>
       <c r="B77">
-        <v>102.8</v>
+        <v>99.6</v>
       </c>
       <c r="C77">
-        <v>131.82</v>
+        <v>130.78</v>
       </c>
       <c r="D77">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E77">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F77">
         <v>0.08</v>
@@ -2453,27 +2453,27 @@
         <v>15</v>
       </c>
       <c r="H77">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I77">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-27 05:14:17</v>
+        <v>2023-09-30 03:59:37</v>
       </c>
       <c r="B78">
-        <v>104</v>
+        <v>99.6</v>
       </c>
       <c r="C78">
-        <v>136.63</v>
+        <v>142.03</v>
       </c>
       <c r="D78">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E78">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F78">
         <v>0.08</v>
@@ -2482,27 +2482,27 @@
         <v>15</v>
       </c>
       <c r="H78">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-27 10:24:15</v>
+        <v>2023-09-30 07:35:22</v>
       </c>
       <c r="B79">
-        <v>108</v>
+        <v>99.6</v>
       </c>
       <c r="C79">
-        <v>136.63</v>
+        <v>142.03</v>
       </c>
       <c r="D79">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E79">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F79">
         <v>0.08</v>
@@ -2511,355 +2511,355 @@
         <v>15</v>
       </c>
       <c r="H79">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I79">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-27 13:59:01</v>
+        <v>2023-09-30 07:41:09</v>
       </c>
       <c r="B80">
-        <v>107.89</v>
+        <v>99.6</v>
       </c>
       <c r="C80">
-        <v>136.63</v>
+        <v>142.03</v>
       </c>
       <c r="D80">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E80">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F80">
         <v>0.08</v>
       </c>
       <c r="G80">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H80">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-27 14:05:29</v>
+        <v>2023-09-30 11:21:13</v>
       </c>
       <c r="B81">
-        <v>107.89</v>
+        <v>99.6</v>
       </c>
       <c r="C81">
-        <v>136.63</v>
+        <v>142.03</v>
       </c>
       <c r="D81">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E81">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F81">
         <v>0.08</v>
       </c>
       <c r="G81">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H81">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I81">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-27 17:41:46</v>
+        <v>2023-09-30 15:03:13</v>
       </c>
       <c r="B82">
-        <v>107.39</v>
+        <v>99.4</v>
       </c>
       <c r="C82">
-        <v>136.63</v>
+        <v>142.03</v>
       </c>
       <c r="D82">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E82">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F82">
         <v>0.08</v>
       </c>
       <c r="G82">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H82">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I82">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-27 17:47:43</v>
+        <v>2023-09-30 18:41:20</v>
       </c>
       <c r="B83">
-        <v>107.39</v>
+        <v>95.78</v>
       </c>
       <c r="C83">
-        <v>136.63</v>
+        <v>142.03</v>
       </c>
       <c r="D83">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E83">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F83">
         <v>0.08</v>
       </c>
       <c r="G83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I83">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-27 21:28:22</v>
+        <v>2023-09-30 22:20:50</v>
       </c>
       <c r="B84">
-        <v>107.39</v>
+        <v>95.68</v>
       </c>
       <c r="C84">
-        <v>136.63</v>
+        <v>142.03</v>
       </c>
       <c r="D84">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E84">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F84">
         <v>0.08</v>
       </c>
       <c r="G84">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H84">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I84">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-28 01:07:17</v>
+        <v>2023-10-01 01:57:49</v>
       </c>
       <c r="B85">
-        <v>107.39</v>
+        <v>99.6</v>
       </c>
       <c r="C85">
-        <v>136.63</v>
+        <v>142.03</v>
       </c>
       <c r="D85">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E85">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F85">
         <v>0.08</v>
       </c>
       <c r="G85">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H85">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="I85">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-28 04:43:18</v>
+        <v>2023-10-01 05:30:17</v>
       </c>
       <c r="B86">
-        <v>107.39</v>
+        <v>99.6</v>
       </c>
       <c r="C86">
-        <v>125.84</v>
+        <v>145.41</v>
       </c>
       <c r="D86">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E86">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F86">
         <v>0.08</v>
       </c>
       <c r="G86">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H86">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="I86">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-28 08:18:15</v>
+        <v>2023-10-01 09:07:37</v>
       </c>
       <c r="B87">
-        <v>107.39</v>
+        <v>99.6</v>
       </c>
       <c r="C87">
-        <v>125.84</v>
+        <v>145.41</v>
       </c>
       <c r="D87">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F87">
         <v>0.08</v>
       </c>
       <c r="G87">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H87">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="I87">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-28 11:57:23</v>
+        <v>2023-10-01 12:45:42</v>
       </c>
       <c r="B88">
-        <v>107.39</v>
+        <v>99.5</v>
       </c>
       <c r="C88">
-        <v>125.84</v>
+        <v>145.41</v>
       </c>
       <c r="D88">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E88">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F88">
         <v>0.08</v>
       </c>
       <c r="G88">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H88">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-28 15:34:30</v>
+        <v>2023-10-01 16:24:56</v>
       </c>
       <c r="B89">
-        <v>108</v>
+        <v>99.5</v>
       </c>
       <c r="C89">
-        <v>125.84</v>
+        <v>145.41</v>
       </c>
       <c r="D89">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E89">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F89">
         <v>0.08</v>
       </c>
       <c r="G89">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H89">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I89">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-28 19:09:43</v>
+        <v>2023-10-01 20:05:06</v>
       </c>
       <c r="B90">
-        <v>107.99</v>
+        <v>99.5</v>
       </c>
       <c r="C90">
-        <v>125.84</v>
+        <v>145.41</v>
       </c>
       <c r="D90">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E90">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F90">
         <v>0.08</v>
       </c>
       <c r="G90">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H90">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I90">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-28 22:49:54</v>
+        <v>2023-10-01 23:45:28</v>
       </c>
       <c r="B91">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C91">
-        <v>125.84</v>
+        <v>145.41</v>
       </c>
       <c r="D91">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E91">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F91">
         <v>0.08</v>
       </c>
       <c r="G91">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H91">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -2867,19 +2867,19 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-29 02:29:46</v>
+        <v>2023-10-02 03:25:45</v>
       </c>
       <c r="B92">
-        <v>108</v>
+        <v>102.5</v>
       </c>
       <c r="C92">
-        <v>130.78</v>
+        <v>145.41</v>
       </c>
       <c r="D92">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E92">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F92">
         <v>0.08</v>
@@ -2888,7 +2888,7 @@
         <v>15</v>
       </c>
       <c r="H92">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I92">
         <v>5</v>
@@ -2896,19 +2896,19 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-29 06:11:02</v>
+        <v>2023-10-02 07:03:19</v>
       </c>
       <c r="B93">
-        <v>108</v>
+        <v>102.5</v>
       </c>
       <c r="C93">
-        <v>130.78</v>
+        <v>145.41</v>
       </c>
       <c r="D93">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E93">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F93">
         <v>0.08</v>
@@ -2917,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="H93">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="I93">
         <v>5</v>
@@ -2925,425 +2925,425 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-29 09:52:42</v>
+        <v>2023-10-02 10:44:29</v>
       </c>
       <c r="B94">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C94">
-        <v>130.78</v>
+        <v>145.41</v>
       </c>
       <c r="D94">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E94">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F94">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G94">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H94">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-29 13:30:09</v>
+        <v>2023-10-02 14:24:45</v>
       </c>
       <c r="B95">
-        <v>103.99</v>
+        <v>103</v>
       </c>
       <c r="C95">
-        <v>130.78</v>
+        <v>145.41</v>
       </c>
       <c r="D95">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E95">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F95">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G95">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H95">
         <v>95</v>
       </c>
       <c r="I95">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-29 17:05:44</v>
+        <v>2023-10-02 18:03:03</v>
       </c>
       <c r="B96">
-        <v>99.8</v>
+        <v>101.5</v>
       </c>
       <c r="C96">
-        <v>130.78</v>
+        <v>145.41</v>
       </c>
       <c r="D96">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E96">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F96">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G96">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H96">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-29 20:41:59</v>
+        <v>2023-10-02 21:43:19</v>
       </c>
       <c r="B97">
-        <v>99.9</v>
+        <v>107.99</v>
       </c>
       <c r="C97">
-        <v>130.78</v>
+        <v>145.41</v>
       </c>
       <c r="D97">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E97">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F97">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G97">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H97">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-30 00:20:58</v>
+        <v>2023-10-03 01:22:38</v>
       </c>
       <c r="B98">
-        <v>99.6</v>
+        <v>108</v>
       </c>
       <c r="C98">
-        <v>130.78</v>
+        <v>145.41</v>
       </c>
       <c r="D98">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E98">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F98">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G98">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H98">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-30 03:59:37</v>
+        <v>2023-10-03 05:03:38</v>
       </c>
       <c r="B99">
-        <v>99.6</v>
+        <v>108</v>
       </c>
       <c r="C99">
-        <v>142.03</v>
+        <v>146.06</v>
       </c>
       <c r="D99">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E99">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F99">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G99">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H99">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-30 07:35:22</v>
+        <v>2023-10-03 08:43:26</v>
       </c>
       <c r="B100">
-        <v>99.6</v>
+        <v>108</v>
       </c>
       <c r="C100">
-        <v>142.03</v>
+        <v>146.06</v>
       </c>
       <c r="D100">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E100">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F100">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G100">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H100">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-30 07:41:09</v>
+        <v>2023-10-03 12:22:36</v>
       </c>
       <c r="B101">
-        <v>99.6</v>
+        <v>108</v>
       </c>
       <c r="C101">
-        <v>142.03</v>
+        <v>146.06</v>
       </c>
       <c r="D101">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E101">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F101">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G101">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H101">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I101">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-30 11:21:13</v>
+        <v>2023-10-03 15:58:01</v>
       </c>
       <c r="B102">
-        <v>99.6</v>
+        <v>108</v>
       </c>
       <c r="C102">
-        <v>142.03</v>
+        <v>146.06</v>
       </c>
       <c r="D102">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E102">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F102">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G102">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H102">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I102">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-30 15:03:13</v>
+        <v>2023-10-03 16:01:04</v>
       </c>
       <c r="B103">
-        <v>99.4</v>
+        <v>108</v>
       </c>
       <c r="C103">
-        <v>142.03</v>
+        <v>146.06</v>
       </c>
       <c r="D103">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E103">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F103">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G103">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H103">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-30 18:41:20</v>
+        <v>2023-10-03 19:33:40</v>
       </c>
       <c r="B104">
-        <v>95.78</v>
+        <v>107</v>
       </c>
       <c r="C104">
-        <v>142.03</v>
+        <v>146.06</v>
       </c>
       <c r="D104">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E104">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F104">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G104">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H104">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-30 22:20:50</v>
+        <v>2023-10-03 23:13:43</v>
       </c>
       <c r="B105">
-        <v>95.68</v>
+        <v>108</v>
       </c>
       <c r="C105">
-        <v>142.03</v>
+        <v>146.06</v>
       </c>
       <c r="D105">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E105">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F105">
         <v>0.08</v>
       </c>
       <c r="G105">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H105">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-01 01:57:49</v>
+        <v>2023-10-04 02:55:02</v>
       </c>
       <c r="B106">
-        <v>99.6</v>
+        <v>108</v>
       </c>
       <c r="C106">
-        <v>142.03</v>
+        <v>160.16</v>
       </c>
       <c r="D106">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E106">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F106">
         <v>0.08</v>
       </c>
       <c r="G106">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H106">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-01 05:30:17</v>
+        <v>2023-10-04 06:34:19</v>
       </c>
       <c r="B107">
-        <v>99.6</v>
+        <v>108</v>
       </c>
       <c r="C107">
-        <v>145.41</v>
+        <v>160.16</v>
       </c>
       <c r="D107">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E107">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F107">
         <v>0.08</v>
       </c>
       <c r="G107">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H107">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-01 09:07:37</v>
+        <v>2023-10-04 10:15:30</v>
       </c>
       <c r="B108">
-        <v>99.6</v>
+        <v>107.99</v>
       </c>
       <c r="C108">
-        <v>145.41</v>
+        <v>160.16</v>
       </c>
       <c r="D108">
         <v>52</v>
       </c>
       <c r="E108">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F108">
         <v>0.08</v>
@@ -3352,268 +3352,268 @@
         <v>16</v>
       </c>
       <c r="H108">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-01 12:45:42</v>
+        <v>2023-10-04 13:54:34</v>
       </c>
       <c r="B109">
-        <v>99.5</v>
+        <v>107.99</v>
       </c>
       <c r="C109">
-        <v>145.41</v>
+        <v>160.16</v>
       </c>
       <c r="D109">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E109">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F109">
         <v>0.08</v>
       </c>
       <c r="G109">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H109">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-01 16:24:56</v>
+        <v>2023-10-04 17:33:04</v>
       </c>
       <c r="B110">
-        <v>99.5</v>
+        <v>107.99</v>
       </c>
       <c r="C110">
-        <v>145.41</v>
+        <v>160.16</v>
       </c>
       <c r="D110">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E110">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F110">
         <v>0.08</v>
       </c>
       <c r="G110">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H110">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-01 20:05:06</v>
+        <v>2023-10-04 21:06:09</v>
       </c>
       <c r="B111">
-        <v>99.5</v>
+        <v>107.99</v>
       </c>
       <c r="C111">
-        <v>145.41</v>
+        <v>160.16</v>
       </c>
       <c r="D111">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E111">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F111">
         <v>0.08</v>
       </c>
       <c r="G111">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H111">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-01 23:45:28</v>
+        <v>2023-10-05 00:46:02</v>
       </c>
       <c r="B112">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C112">
-        <v>145.41</v>
+        <v>160.16</v>
       </c>
       <c r="D112">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E112">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F112">
         <v>0.08</v>
       </c>
       <c r="G112">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H112">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-02 03:25:45</v>
+        <v>2023-10-05 04:25:15</v>
       </c>
       <c r="B113">
-        <v>102.5</v>
+        <v>109</v>
       </c>
       <c r="C113">
-        <v>145.41</v>
+        <v>164.84</v>
       </c>
       <c r="D113">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E113">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F113">
         <v>0.08</v>
       </c>
       <c r="G113">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H113">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-02 07:03:19</v>
+        <v>2023-10-05 08:04:49</v>
       </c>
       <c r="B114">
-        <v>102.5</v>
+        <v>109</v>
       </c>
       <c r="C114">
-        <v>145.41</v>
+        <v>164.84</v>
       </c>
       <c r="D114">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E114">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F114">
         <v>0.08</v>
       </c>
       <c r="G114">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H114">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-02 10:44:29</v>
+        <v>2023-10-05 11:46:30</v>
       </c>
       <c r="B115">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C115">
-        <v>145.41</v>
+        <v>164.84</v>
       </c>
       <c r="D115">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E115">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F115">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G115">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H115">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I115">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-02 14:24:45</v>
+        <v>2023-10-05 15:24:45</v>
       </c>
       <c r="B116">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C116">
-        <v>145.41</v>
+        <v>164.84</v>
       </c>
       <c r="D116">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E116">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F116">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G116">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H116">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I116">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-02 18:03:03</v>
+        <v>2023-10-05 19:05:51</v>
       </c>
       <c r="B117">
-        <v>101.5</v>
+        <v>109</v>
       </c>
       <c r="C117">
-        <v>145.41</v>
+        <v>164.84</v>
       </c>
       <c r="D117">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E117">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F117">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G117">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H117">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I117">
         <v>8</v>
@@ -3621,57 +3621,57 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-02 21:43:19</v>
+        <v>2023-10-05 22:45:02</v>
       </c>
       <c r="B118">
-        <v>107.99</v>
+        <v>109</v>
       </c>
       <c r="C118">
-        <v>145.41</v>
+        <v>164.84</v>
       </c>
       <c r="D118">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E118">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F118">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G118">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H118">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I118">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-03 01:22:38</v>
+        <v>2023-10-06 02:24:34</v>
       </c>
       <c r="B119">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C119">
-        <v>145.41</v>
+        <v>164.84</v>
       </c>
       <c r="D119">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E119">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F119">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G119">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H119">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I119">
         <v>10</v>
@@ -3679,158 +3679,158 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-03 05:03:38</v>
+        <v>2023-10-06 06:01:27</v>
       </c>
       <c r="B120">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C120">
-        <v>146.06</v>
+        <v>164.84</v>
       </c>
       <c r="D120">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E120">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F120">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G120">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H120">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I120">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-03 08:43:26</v>
+        <v>2023-10-06 09:33:51</v>
       </c>
       <c r="B121">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C121">
-        <v>146.06</v>
+        <v>164.84</v>
       </c>
       <c r="D121">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E121">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F121">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="G121">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H121">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I121">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-03 12:22:36</v>
+        <v>2023-10-06 13:10:59</v>
       </c>
       <c r="B122">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C122">
-        <v>146.06</v>
+        <v>164.84</v>
       </c>
       <c r="D122">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E122">
         <v>0.09</v>
       </c>
       <c r="F122">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G122">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H122">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I122">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-03 15:58:01</v>
+        <v>2023-10-06 13:15:26</v>
       </c>
       <c r="B123">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C123">
-        <v>146.06</v>
+        <v>164.84</v>
       </c>
       <c r="D123">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E123">
         <v>0.09</v>
       </c>
       <c r="F123">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G123">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H123">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I123">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-03 16:01:04</v>
+        <v>2023-10-06 16:56:40</v>
       </c>
       <c r="B124">
-        <v>108</v>
+        <v>108.99</v>
       </c>
       <c r="C124">
-        <v>146.06</v>
+        <v>164.84</v>
       </c>
       <c r="D124">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E124">
         <v>0.09</v>
       </c>
       <c r="F124">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G124">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H124">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I124">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-03 19:33:40</v>
+        <v>2023-10-06 20:35:07</v>
       </c>
       <c r="B125">
-        <v>107</v>
+        <v>107.99</v>
       </c>
       <c r="C125">
-        <v>146.06</v>
+        <v>164.84</v>
       </c>
       <c r="D125">
         <v>51</v>
@@ -3839,187 +3839,187 @@
         <v>0.09</v>
       </c>
       <c r="F125">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G125">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H125">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I125">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-03 23:13:43</v>
+        <v>2023-10-07 00:10:59</v>
       </c>
       <c r="B126">
-        <v>108</v>
+        <v>107.99</v>
       </c>
       <c r="C126">
-        <v>146.06</v>
+        <v>164.84</v>
       </c>
       <c r="D126">
         <v>48</v>
       </c>
       <c r="E126">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F126">
         <v>0.08</v>
       </c>
       <c r="G126">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H126">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I126">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-04 02:55:02</v>
+        <v>2023-10-07 03:49:54</v>
       </c>
       <c r="B127">
-        <v>108</v>
+        <v>107.99</v>
       </c>
       <c r="C127">
-        <v>160.16</v>
+        <v>157.16</v>
       </c>
       <c r="D127">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E127">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F127">
         <v>0.08</v>
       </c>
       <c r="G127">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H127">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I127">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-04 06:34:19</v>
+        <v>2023-10-07 07:28:54</v>
       </c>
       <c r="B128">
-        <v>108</v>
+        <v>107.49</v>
       </c>
       <c r="C128">
-        <v>160.16</v>
+        <v>157.16</v>
       </c>
       <c r="D128">
         <v>49</v>
       </c>
       <c r="E128">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F128">
         <v>0.08</v>
       </c>
       <c r="G128">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H128">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I128">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-04 10:15:30</v>
+        <v>2023-10-07 11:06:36</v>
       </c>
       <c r="B129">
-        <v>107.99</v>
+        <v>108.78</v>
       </c>
       <c r="C129">
-        <v>160.16</v>
+        <v>157.16</v>
       </c>
       <c r="D129">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E129">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F129">
         <v>0.08</v>
       </c>
       <c r="G129">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H129">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I129">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-04 13:54:34</v>
+        <v>2023-10-07 14:48:16</v>
       </c>
       <c r="B130">
-        <v>107.99</v>
+        <v>107.98</v>
       </c>
       <c r="C130">
-        <v>160.16</v>
+        <v>157.16</v>
       </c>
       <c r="D130">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E130">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F130">
         <v>0.08</v>
       </c>
       <c r="G130">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H130">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I130">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-04 17:33:04</v>
+        <v>2023-10-07 18:26:01</v>
       </c>
       <c r="B131">
-        <v>107.99</v>
+        <v>108</v>
       </c>
       <c r="C131">
-        <v>160.16</v>
+        <v>157.16</v>
       </c>
       <c r="D131">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E131">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F131">
         <v>0.08</v>
       </c>
       <c r="G131">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H131">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I131">
         <v>10</v>
@@ -4027,45 +4027,45 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-04 21:06:09</v>
+        <v>2023-10-07 22:04:11</v>
       </c>
       <c r="B132">
-        <v>107.99</v>
+        <v>108</v>
       </c>
       <c r="C132">
-        <v>160.16</v>
+        <v>157.16</v>
       </c>
       <c r="D132">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E132">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F132">
         <v>0.08</v>
       </c>
       <c r="G132">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H132">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I132">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-05 00:46:02</v>
+        <v>2023-10-08 01:43:29</v>
       </c>
       <c r="B133">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C133">
-        <v>160.16</v>
+        <v>157.16</v>
       </c>
       <c r="D133">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E133">
         <v>0.1</v>
@@ -4077,24 +4077,24 @@
         <v>17</v>
       </c>
       <c r="H133">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I133">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-05 04:25:15</v>
+        <v>2023-10-08 05:21:09</v>
       </c>
       <c r="B134">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C134">
-        <v>164.84</v>
+        <v>162.69</v>
       </c>
       <c r="D134">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E134">
         <v>0.1</v>
@@ -4103,10 +4103,10 @@
         <v>0.08</v>
       </c>
       <c r="G134">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H134">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I134">
         <v>11</v>
@@ -4114,16 +4114,16 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-05 08:04:49</v>
+        <v>2023-10-08 09:01:39</v>
       </c>
       <c r="B135">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C135">
-        <v>164.84</v>
+        <v>162.69</v>
       </c>
       <c r="D135">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E135">
         <v>0.1</v>
@@ -4132,27 +4132,27 @@
         <v>0.08</v>
       </c>
       <c r="G135">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H135">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I135">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-05 11:46:30</v>
+        <v>2023-10-08 12:42:42</v>
       </c>
       <c r="B136">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C136">
-        <v>164.84</v>
+        <v>162.69</v>
       </c>
       <c r="D136">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E136">
         <v>0.1</v>
@@ -4161,27 +4161,27 @@
         <v>0.08</v>
       </c>
       <c r="G136">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H136">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I136">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-05 15:24:45</v>
+        <v>2023-10-08 16:20:04</v>
       </c>
       <c r="B137">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C137">
-        <v>164.84</v>
+        <v>162.69</v>
       </c>
       <c r="D137">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E137">
         <v>0.1</v>
@@ -4193,24 +4193,24 @@
         <v>17</v>
       </c>
       <c r="H137">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I137">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-05 19:05:51</v>
+        <v>2023-10-08 19:59:52</v>
       </c>
       <c r="B138">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C138">
-        <v>164.84</v>
+        <v>162.69</v>
       </c>
       <c r="D138">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E138">
         <v>0.1</v>
@@ -4219,227 +4219,227 @@
         <v>0.08</v>
       </c>
       <c r="G138">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H138">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I138">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-05 22:45:02</v>
+        <v>2023-10-08 23:37:00</v>
       </c>
       <c r="B139">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C139">
-        <v>164.84</v>
+        <v>162.69</v>
       </c>
       <c r="D139">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E139">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F139">
         <v>0.08</v>
       </c>
       <c r="G139">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H139">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I139">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-06 02:24:34</v>
+        <v>2023-10-09 03:17:57</v>
       </c>
       <c r="B140">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C140">
-        <v>164.84</v>
+        <v>155.09</v>
       </c>
       <c r="D140">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E140">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F140">
         <v>0.08</v>
       </c>
       <c r="G140">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H140">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I140">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-06 06:01:27</v>
+        <v>2023-10-09 06:58:31</v>
       </c>
       <c r="B141">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C141">
-        <v>164.84</v>
+        <v>155.09</v>
       </c>
       <c r="D141">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E141">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F141">
         <v>0.08</v>
       </c>
       <c r="G141">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H141">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I141">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-06 09:33:51</v>
+        <v>2023-10-09 10:38:25</v>
       </c>
       <c r="B142">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C142">
-        <v>164.84</v>
+        <v>155.09</v>
       </c>
       <c r="D142">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E142">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F142">
         <v>0.08</v>
       </c>
       <c r="G142">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H142">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I142">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-06 13:10:59</v>
+        <v>2023-10-09 14:18:01</v>
       </c>
       <c r="B143">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C143">
-        <v>164.84</v>
+        <v>155.09</v>
       </c>
       <c r="D143">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E143">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F143">
         <v>0.08</v>
       </c>
       <c r="G143">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H143">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I143">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-06 13:15:26</v>
+        <v>2023-10-09 18:00:00</v>
       </c>
       <c r="B144">
-        <v>109</v>
+        <v>107.5</v>
       </c>
       <c r="C144">
-        <v>164.84</v>
+        <v>155.09</v>
       </c>
       <c r="D144">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E144">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F144">
         <v>0.08</v>
       </c>
       <c r="G144">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H144">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I144">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-06 16:56:40</v>
+        <v>2023-10-09 21:38:18</v>
       </c>
       <c r="B145">
-        <v>108.99</v>
+        <v>107.5</v>
       </c>
       <c r="C145">
-        <v>164.84</v>
+        <v>155.09</v>
       </c>
       <c r="D145">
         <v>53</v>
       </c>
       <c r="E145">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F145">
         <v>0.08</v>
       </c>
       <c r="G145">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H145">
         <v>104</v>
       </c>
       <c r="I145">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-06 20:35:07</v>
+        <v>2023-10-10 01:15:20</v>
       </c>
       <c r="B146">
-        <v>107.99</v>
+        <v>107.5</v>
       </c>
       <c r="C146">
-        <v>164.84</v>
+        <v>155.09</v>
       </c>
       <c r="D146">
         <v>51</v>
@@ -4448,378 +4448,378 @@
         <v>0.09</v>
       </c>
       <c r="F146">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G146">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H146">
         <v>104</v>
       </c>
       <c r="I146">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-07 00:10:59</v>
+        <v>2023-10-10 04:49:55</v>
       </c>
       <c r="B147">
-        <v>107.99</v>
+        <v>107.5</v>
       </c>
       <c r="C147">
-        <v>164.84</v>
+        <v>165.36</v>
       </c>
       <c r="D147">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E147">
         <v>0.09</v>
       </c>
       <c r="F147">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G147">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H147">
         <v>104</v>
       </c>
       <c r="I147">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-07 03:49:54</v>
+        <v>2023-10-10 08:28:33</v>
       </c>
       <c r="B148">
-        <v>107.99</v>
+        <v>107.5</v>
       </c>
       <c r="C148">
-        <v>157.16</v>
+        <v>165.36</v>
       </c>
       <c r="D148">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E148">
         <v>0.09</v>
       </c>
       <c r="F148">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G148">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H148">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I148">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-07 07:28:54</v>
+        <v>2023-10-10 12:06:59</v>
       </c>
       <c r="B149">
-        <v>107.49</v>
+        <v>107.5</v>
       </c>
       <c r="C149">
-        <v>157.16</v>
+        <v>165.36</v>
       </c>
       <c r="D149">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E149">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F149">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G149">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H149">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I149">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-07 11:06:36</v>
+        <v>2023-10-10 15:43:39</v>
       </c>
       <c r="B150">
-        <v>108.78</v>
+        <v>108</v>
       </c>
       <c r="C150">
-        <v>157.16</v>
+        <v>165.36</v>
       </c>
       <c r="D150">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E150">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F150">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G150">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H150">
         <v>104</v>
       </c>
       <c r="I150">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-07 14:48:16</v>
+        <v>2023-10-10 15:49:40</v>
       </c>
       <c r="B151">
-        <v>107.98</v>
+        <v>108</v>
       </c>
       <c r="C151">
-        <v>157.16</v>
+        <v>165.36</v>
       </c>
       <c r="D151">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E151">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F151">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="G151">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H151">
         <v>104</v>
       </c>
       <c r="I151">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-07 18:26:01</v>
+        <v>2023-10-10 19:28:26</v>
       </c>
       <c r="B152">
-        <v>108</v>
+        <v>109.99</v>
       </c>
       <c r="C152">
-        <v>157.16</v>
+        <v>165.36</v>
       </c>
       <c r="D152">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E152">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="F152">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G152">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H152">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I152">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-07 22:04:11</v>
+        <v>2023-10-10 23:09:14</v>
       </c>
       <c r="B153">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C153">
-        <v>157.16</v>
+        <v>165.36</v>
       </c>
       <c r="D153">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E153">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="F153">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G153">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H153">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I153">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-08 01:43:29</v>
+        <v>2023-10-11 02:49:17</v>
       </c>
       <c r="B154">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C154">
-        <v>157.16</v>
+        <v>170.75</v>
       </c>
       <c r="D154">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E154">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="F154">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G154">
         <v>17</v>
       </c>
       <c r="H154">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I154">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-08 05:21:09</v>
+        <v>2023-10-11 06:29:11</v>
       </c>
       <c r="B155">
-        <v>107.5</v>
+        <v>110</v>
       </c>
       <c r="C155">
-        <v>162.69</v>
+        <v>170.75</v>
       </c>
       <c r="D155">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E155">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="F155">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G155">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H155">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I155">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-08 09:01:39</v>
+        <v>2023-10-11 10:08:05</v>
       </c>
       <c r="B156">
-        <v>107.5</v>
+        <v>111</v>
       </c>
       <c r="C156">
-        <v>162.69</v>
+        <v>170.75</v>
       </c>
       <c r="D156">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E156">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
       <c r="F156">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G156">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H156">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I156">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-08 12:42:42</v>
+        <v>2023-10-11 13:38:25</v>
       </c>
       <c r="B157">
-        <v>107.5</v>
+        <v>113</v>
       </c>
       <c r="C157">
-        <v>162.69</v>
+        <v>170.75</v>
       </c>
       <c r="D157">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E157">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F157">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G157">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H157">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I157">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-08 16:20:04</v>
+        <v>2023-10-11 17:14:35</v>
       </c>
       <c r="B158">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="C158">
-        <v>162.69</v>
+        <v>170.75</v>
       </c>
       <c r="D158">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E158">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="F158">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G158">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H158">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I158">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-08 19:59:52</v>
+        <v>2023-10-11 20:53:40</v>
       </c>
       <c r="B159">
-        <v>107.5</v>
+        <v>114.99</v>
       </c>
       <c r="C159">
-        <v>162.69</v>
+        <v>170.75</v>
       </c>
       <c r="D159">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E159">
         <v>0.1</v>
@@ -4828,27 +4828,27 @@
         <v>0.08</v>
       </c>
       <c r="G159">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H159">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I159">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-08 23:37:00</v>
+        <v>2023-10-12 00:30:16</v>
       </c>
       <c r="B160">
-        <v>107.5</v>
+        <v>114.99</v>
       </c>
       <c r="C160">
-        <v>162.69</v>
+        <v>170.75</v>
       </c>
       <c r="D160">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E160">
         <v>0.1</v>
@@ -4860,24 +4860,24 @@
         <v>16</v>
       </c>
       <c r="H160">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I160">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-09 03:17:57</v>
+        <v>2023-10-12 04:11:33</v>
       </c>
       <c r="B161">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="C161">
-        <v>155.09</v>
+        <v>170.75</v>
       </c>
       <c r="D161">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E161">
         <v>0.1</v>
@@ -4889,111 +4889,111 @@
         <v>16</v>
       </c>
       <c r="H161">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I161">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-09 06:58:31</v>
+        <v>2023-10-12 07:52:19</v>
       </c>
       <c r="B162">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="C162">
-        <v>155.09</v>
+        <v>170.75</v>
       </c>
       <c r="D162">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E162">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F162">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G162">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H162">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I162">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-09 10:38:25</v>
+        <v>2023-10-12 11:32:10</v>
       </c>
       <c r="B163">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="C163">
-        <v>155.09</v>
+        <v>170.75</v>
       </c>
       <c r="D163">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E163">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F163">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G163">
         <v>16</v>
       </c>
       <c r="H163">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I163">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-09 14:18:01</v>
+        <v>2023-10-12 15:12:48</v>
       </c>
       <c r="B164">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C164">
-        <v>155.09</v>
+        <v>170.75</v>
       </c>
       <c r="D164">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E164">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F164">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G164">
         <v>16</v>
       </c>
       <c r="H164">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I164">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-09 18:00:00</v>
+        <v>2023-10-12 18:51:40</v>
       </c>
       <c r="B165">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="C165">
-        <v>155.09</v>
+        <v>170.75</v>
       </c>
       <c r="D165">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E165">
         <v>0.1</v>
@@ -5002,27 +5002,27 @@
         <v>0.08</v>
       </c>
       <c r="G165">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H165">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I165">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-09 21:38:18</v>
+        <v>2023-10-12 22:30:25</v>
       </c>
       <c r="B166">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="C166">
-        <v>155.09</v>
+        <v>170.75</v>
       </c>
       <c r="D166">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E166">
         <v>0.1</v>
@@ -5031,39 +5031,39 @@
         <v>0.08</v>
       </c>
       <c r="G166">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H166">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I166">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-10 01:15:20</v>
+        <v>2023-10-13 02:09:43</v>
       </c>
       <c r="B167">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="C167">
-        <v>155.09</v>
+        <v>165.56</v>
       </c>
       <c r="D167">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E167">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F167">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G167">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H167">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I167">
         <v>13</v>
@@ -5071,28 +5071,28 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-10 04:49:55</v>
+        <v>2023-10-13 05:51:00</v>
       </c>
       <c r="B168">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="C168">
-        <v>165.36</v>
+        <v>165.56</v>
       </c>
       <c r="D168">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E168">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F168">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G168">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H168">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I168">
         <v>13</v>
@@ -5100,57 +5100,57 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-10 08:28:33</v>
+        <v>2023-10-13 09:30:57</v>
       </c>
       <c r="B169">
-        <v>107.5</v>
+        <v>115</v>
       </c>
       <c r="C169">
-        <v>165.36</v>
+        <v>165.56</v>
       </c>
       <c r="D169">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E169">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F169">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="G169">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H169">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I169">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-10 12:06:59</v>
+        <v>2023-10-13 13:11:22</v>
       </c>
       <c r="B170">
-        <v>107.5</v>
+        <v>114.5</v>
       </c>
       <c r="C170">
-        <v>165.36</v>
+        <v>165.56</v>
       </c>
       <c r="D170">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E170">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F170">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G170">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H170">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I170">
         <v>12</v>
@@ -5158,115 +5158,115 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-10 15:43:39</v>
+        <v>2023-10-13 16:52:12</v>
       </c>
       <c r="B171">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C171">
-        <v>165.36</v>
+        <v>165.56</v>
       </c>
       <c r="D171">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E171">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F171">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G171">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H171">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I171">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-10 15:49:40</v>
+        <v>2023-10-13 20:33:11</v>
       </c>
       <c r="B172">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C172">
-        <v>165.36</v>
+        <v>165.56</v>
       </c>
       <c r="D172">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E172">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F172">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G172">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H172">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I172">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-10 19:28:26</v>
+        <v>2023-10-14 00:11:35</v>
       </c>
       <c r="B173">
-        <v>109.99</v>
+        <v>114.5</v>
       </c>
       <c r="C173">
-        <v>165.36</v>
+        <v>165.56</v>
       </c>
       <c r="D173">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E173">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="F173">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G173">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H173">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I173">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-10 23:09:14</v>
+        <v>2023-10-14 03:49:44</v>
       </c>
       <c r="B174">
-        <v>110</v>
+        <v>114.5</v>
       </c>
       <c r="C174">
-        <v>165.36</v>
+        <v>165.56</v>
       </c>
       <c r="D174">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E174">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="F174">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G174">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H174">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I174">
         <v>14</v>
@@ -5274,28 +5274,28 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-11 02:49:17</v>
+        <v>2023-10-14 07:24:52</v>
       </c>
       <c r="B175">
-        <v>110</v>
+        <v>114.5</v>
       </c>
       <c r="C175">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D175">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E175">
-        <v>0.07</v>
+        <v>0.12</v>
       </c>
       <c r="F175">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G175">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H175">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I175">
         <v>14</v>
@@ -5303,480 +5303,480 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-11 06:29:11</v>
+        <v>2023-10-14 07:30:33</v>
       </c>
       <c r="B176">
-        <v>110</v>
+        <v>114.5</v>
       </c>
       <c r="C176">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D176">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E176">
-        <v>0.07</v>
+        <v>0.12</v>
       </c>
       <c r="F176">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G176">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H176">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I176">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-11 10:08:05</v>
+        <v>2023-10-14 11:10:31</v>
       </c>
       <c r="B177">
-        <v>111</v>
+        <v>114.5</v>
       </c>
       <c r="C177">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D177">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E177">
-        <v>0.07</v>
+        <v>0.12</v>
       </c>
       <c r="F177">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G177">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H177">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I177">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-11 13:38:25</v>
+        <v>2023-10-14 14:43:50</v>
       </c>
       <c r="B178">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C178">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D178">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E178">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F178">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G178">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H178">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I178">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-11 17:14:35</v>
+        <v>2023-10-14 14:50:37</v>
       </c>
       <c r="B179">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C179">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D179">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E179">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F179">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="G179">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H179">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I179">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-11 20:53:40</v>
+        <v>2023-10-14 18:26:39</v>
       </c>
       <c r="B180">
-        <v>114.99</v>
+        <v>114</v>
       </c>
       <c r="C180">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D180">
         <v>46</v>
       </c>
       <c r="E180">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F180">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G180">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H180">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I180">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-12 00:30:16</v>
+        <v>2023-10-14 18:30:44</v>
       </c>
       <c r="B181">
-        <v>114.99</v>
+        <v>114</v>
       </c>
       <c r="C181">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D181">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E181">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F181">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G181">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H181">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I181">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-12 04:11:33</v>
+        <v>2023-10-14 22:05:51</v>
       </c>
       <c r="B182">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C182">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D182">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E182">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F182">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G182">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H182">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I182">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-12 07:52:19</v>
+        <v>2023-10-14 22:11:28</v>
       </c>
       <c r="B183">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C183">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D183">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E183">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F183">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="G183">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H183">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I183">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-12 11:32:10</v>
+        <v>2023-10-15 01:50:02</v>
       </c>
       <c r="B184">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C184">
-        <v>170.75</v>
+        <v>165.56</v>
       </c>
       <c r="D184">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E184">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F184">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="G184">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H184">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I184">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-12 15:12:48</v>
+        <v>2023-10-15 05:22:07</v>
       </c>
       <c r="B185">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C185">
-        <v>170.75</v>
+        <v>169</v>
       </c>
       <c r="D185">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E185">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F185">
-        <v>0.07</v>
+        <v>0.09</v>
       </c>
       <c r="G185">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H185">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I185">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-12 18:51:40</v>
+        <v>2023-10-15 09:01:35</v>
       </c>
       <c r="B186">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C186">
-        <v>170.75</v>
+        <v>169</v>
       </c>
       <c r="D186">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E186">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F186">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G186">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H186">
         <v>107</v>
       </c>
       <c r="I186">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-12 22:30:25</v>
+        <v>2023-10-15 12:41:51</v>
       </c>
       <c r="B187">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C187">
-        <v>170.75</v>
+        <v>169</v>
       </c>
       <c r="D187">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E187">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F187">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G187">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H187">
         <v>107</v>
       </c>
       <c r="I187">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-13 02:09:43</v>
+        <v>2023-10-15 16:20:09</v>
       </c>
       <c r="B188">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C188">
-        <v>165.56</v>
+        <v>169</v>
       </c>
       <c r="D188">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E188">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F188">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G188">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H188">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I188">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-13 05:51:00</v>
+        <v>2023-10-15 19:57:16</v>
       </c>
       <c r="B189">
-        <v>115</v>
+        <v>113.88</v>
       </c>
       <c r="C189">
-        <v>165.56</v>
+        <v>169</v>
       </c>
       <c r="D189">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E189">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F189">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G189">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H189">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I189">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-13 09:30:57</v>
+        <v>2023-10-15 20:03:50</v>
       </c>
       <c r="B190">
-        <v>115</v>
+        <v>113.88</v>
       </c>
       <c r="C190">
-        <v>165.56</v>
+        <v>169</v>
       </c>
       <c r="D190">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E190">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F190">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G190">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H190">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I190">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-13 13:11:22</v>
+        <v>2023-10-15 23:42:28</v>
       </c>
       <c r="B191">
-        <v>114.5</v>
+        <v>114</v>
       </c>
       <c r="C191">
-        <v>165.56</v>
+        <v>169</v>
       </c>
       <c r="D191">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E191">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F191">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G191">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H191">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I191">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-13 16:52:12</v>
+        <v>2023-10-16 03:22:19</v>
       </c>
       <c r="B192">
         <v>114</v>
       </c>
       <c r="C192">
-        <v>165.56</v>
+        <v>172.38</v>
       </c>
       <c r="D192">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E192">
         <v>0.12</v>
@@ -5785,88 +5785,88 @@
         <v>0.09</v>
       </c>
       <c r="G192">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H192">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I192">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-13 20:33:11</v>
+        <v>2023-10-16 07:03:19</v>
       </c>
       <c r="B193">
-        <v>114</v>
+        <v>114.5</v>
       </c>
       <c r="C193">
-        <v>165.56</v>
+        <v>172.38</v>
       </c>
       <c r="D193">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E193">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F193">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G193">
+        <v>12</v>
+      </c>
+      <c r="H193">
+        <v>108</v>
+      </c>
+      <c r="I193">
         <v>15</v>
-      </c>
-      <c r="H193">
-        <v>107</v>
-      </c>
-      <c r="I193">
-        <v>14</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-14 00:11:35</v>
+        <v>2023-10-16 10:42:21</v>
       </c>
       <c r="B194">
-        <v>114.5</v>
+        <v>115</v>
       </c>
       <c r="C194">
-        <v>165.56</v>
+        <v>172.38</v>
       </c>
       <c r="D194">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E194">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F194">
         <v>0.08</v>
       </c>
       <c r="G194">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H194">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I194">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-14 03:49:44</v>
+        <v>2023-10-16 14:22:23</v>
       </c>
       <c r="B195">
-        <v>114.5</v>
+        <v>106</v>
       </c>
       <c r="C195">
-        <v>165.56</v>
+        <v>172.38</v>
       </c>
       <c r="D195">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E195">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F195">
         <v>0.08</v>
@@ -5875,120 +5875,120 @@
         <v>13</v>
       </c>
       <c r="H195">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I195">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-14 07:24:52</v>
+        <v>2023-10-16 18:00:37</v>
       </c>
       <c r="B196">
-        <v>114.5</v>
+        <v>114.4</v>
       </c>
       <c r="C196">
-        <v>165.56</v>
+        <v>172.38</v>
       </c>
       <c r="D196">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E196">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F196">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G196">
+        <v>13</v>
+      </c>
+      <c r="H196">
+        <v>106</v>
+      </c>
+      <c r="I196">
         <v>12</v>
-      </c>
-      <c r="H196">
-        <v>107</v>
-      </c>
-      <c r="I196">
-        <v>14</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-14 07:30:33</v>
+        <v>2023-10-16 21:37:08</v>
       </c>
       <c r="B197">
         <v>114.5</v>
       </c>
       <c r="C197">
-        <v>165.56</v>
+        <v>172.38</v>
       </c>
       <c r="D197">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E197">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F197">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G197">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H197">
         <v>107</v>
       </c>
       <c r="I197">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-14 11:10:31</v>
+        <v>2023-10-17 01:15:11</v>
       </c>
       <c r="B198">
-        <v>114.5</v>
+        <v>115</v>
       </c>
       <c r="C198">
-        <v>165.56</v>
+        <v>172.38</v>
       </c>
       <c r="D198">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E198">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F198">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G198">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H198">
         <v>107</v>
       </c>
       <c r="I198">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-14 14:43:50</v>
+        <v>2023-10-17 04:55:20</v>
       </c>
       <c r="B199">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C199">
-        <v>165.56</v>
+        <v>160.03</v>
       </c>
       <c r="D199">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E199">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F199">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G199">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H199">
         <v>107</v>
@@ -5999,25 +5999,25 @@
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-14 14:50:37</v>
+        <v>2023-10-17 08:36:45</v>
       </c>
       <c r="B200">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C200">
-        <v>165.56</v>
+        <v>160.03</v>
       </c>
       <c r="D200">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E200">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F200">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G200">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H200">
         <v>107</v>
@@ -6028,28 +6028,28 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-14 18:26:39</v>
+        <v>2023-10-17 12:16:06</v>
       </c>
       <c r="B201">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C201">
-        <v>165.56</v>
+        <v>160.03</v>
       </c>
       <c r="D201">
         <v>46</v>
       </c>
       <c r="E201">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F201">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G201">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H201">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I201">
         <v>14</v>
@@ -6057,57 +6057,57 @@
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-14 18:30:44</v>
+        <v>2023-10-17 15:54:55</v>
       </c>
       <c r="B202">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C202">
-        <v>165.56</v>
+        <v>160.03</v>
       </c>
       <c r="D202">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E202">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F202">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G202">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H202">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I202">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-14 22:05:51</v>
+        <v>2023-10-17 19:31:39</v>
       </c>
       <c r="B203">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C203">
-        <v>165.56</v>
+        <v>160.03</v>
       </c>
       <c r="D203">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E203">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F203">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G203">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H203">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I203">
         <v>14</v>
@@ -6115,350 +6115,292 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-14 22:11:28</v>
+        <v>2023-10-17 23:09:18</v>
       </c>
       <c r="B204">
-        <v>114</v>
+        <v>114.9</v>
       </c>
       <c r="C204">
-        <v>165.56</v>
+        <v>160.03</v>
       </c>
       <c r="D204">
         <v>48</v>
       </c>
       <c r="E204">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F204">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G204">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H204">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I204">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-15 01:50:02</v>
+        <v>2023-10-18 02:47:30</v>
       </c>
       <c r="B205">
         <v>114</v>
       </c>
       <c r="C205">
-        <v>165.56</v>
+        <v>171.99</v>
       </c>
       <c r="D205">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E205">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F205">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G205">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H205">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I205">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-15 05:22:07</v>
+        <v>2023-10-18 06:25:47</v>
       </c>
       <c r="B206">
         <v>114</v>
       </c>
       <c r="C206">
-        <v>169</v>
+        <v>171.99</v>
       </c>
       <c r="D206">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E206">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F206">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G206">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H206">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I206">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-15 09:01:35</v>
+        <v>2023-10-18 10:08:10</v>
       </c>
       <c r="B207">
-        <v>114</v>
+        <v>113.5</v>
       </c>
       <c r="C207">
-        <v>169</v>
+        <v>171.99</v>
       </c>
       <c r="D207">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E207">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F207">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G207">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H207">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I207">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-15 12:41:51</v>
+        <v>2023-10-18 13:46:41</v>
       </c>
       <c r="B208">
         <v>114</v>
       </c>
       <c r="C208">
-        <v>169</v>
+        <v>171.99</v>
       </c>
       <c r="D208">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E208">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F208">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G208">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H208">
         <v>107</v>
       </c>
       <c r="I208">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>2023-10-15 16:20:09</v>
+        <v>2023-10-18 17:26:29</v>
       </c>
       <c r="B209">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="C209">
-        <v>169</v>
+        <v>171.99</v>
       </c>
       <c r="D209">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E209">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F209">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G209">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H209">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I209">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>2023-10-15 19:57:16</v>
+        <v>2023-10-18 21:06:33</v>
       </c>
       <c r="B210">
-        <v>113.88</v>
+        <v>113.9</v>
       </c>
       <c r="C210">
-        <v>169</v>
+        <v>171.99</v>
       </c>
       <c r="D210">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E210">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F210">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G210">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H210">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I210">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>2023-10-15 20:03:50</v>
+        <v>2023-10-19 00:45:27</v>
       </c>
       <c r="B211">
-        <v>113.88</v>
+        <v>113.9</v>
       </c>
       <c r="C211">
-        <v>169</v>
+        <v>171.99</v>
       </c>
       <c r="D211">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E211">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F211">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G211">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H211">
         <v>106</v>
       </c>
       <c r="I211">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>2023-10-15 23:42:28</v>
+        <v>2023-10-19 04:25:07</v>
       </c>
       <c r="B212">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="C212">
-        <v>169</v>
+        <v>164.25</v>
       </c>
       <c r="D212">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E212">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F212">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G212">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H212">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I212">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>2023-10-16 03:22:19</v>
+        <v>2023-10-19 08:03:09</v>
       </c>
       <c r="B213">
-        <v>114</v>
+        <v>113.9</v>
       </c>
       <c r="C213">
-        <v>172.38</v>
+        <v>164.25</v>
       </c>
       <c r="D213">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E213">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F213">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G213">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H213">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I213">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="str">
-        <v>2023-10-16 07:03:19</v>
-      </c>
-      <c r="B214">
-        <v>114.5</v>
-      </c>
-      <c r="C214">
-        <v>172.38</v>
-      </c>
-      <c r="D214">
-        <v>45</v>
-      </c>
-      <c r="E214">
-        <v>0.12</v>
-      </c>
-      <c r="F214">
-        <v>0.09</v>
-      </c>
-      <c r="G214">
-        <v>12</v>
-      </c>
-      <c r="H214">
-        <v>108</v>
-      </c>
-      <c r="I214">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="str">
-        <v>2023-10-16 10:42:21</v>
-      </c>
-      <c r="B215">
-        <v>115</v>
-      </c>
-      <c r="C215">
-        <v>172.38</v>
-      </c>
-      <c r="D215">
-        <v>46</v>
-      </c>
-      <c r="E215">
-        <v>0.1</v>
-      </c>
-      <c r="F215">
-        <v>0.08</v>
-      </c>
-      <c r="G215">
-        <v>13</v>
-      </c>
-      <c r="H215">
-        <v>108</v>
-      </c>
-      <c r="I215">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6412,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I215"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I213"/>
   </ignoredErrors>
 </worksheet>
 </file>